--- a/DAT/input/portfolio.xlsx
+++ b/DAT/input/portfolio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/Notas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F51874-AA6E-43A0-8F46-FE1C33A9F1E1}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F251CC-5752-480D-B820-992F39FA7406}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>instID</t>
   </si>
@@ -78,6 +78,39 @@
   </si>
   <si>
     <t>USDMXN</t>
+  </si>
+  <si>
+    <t>TypeOfIndustry</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Cecy</t>
+  </si>
+  <si>
+    <t>Bety</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>America Mobil</t>
+  </si>
+  <si>
+    <t>Apple Inc</t>
+  </si>
+  <si>
+    <t>JP Morgan Chase</t>
   </si>
 </sst>
 </file>
@@ -130,10 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +498,17 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -492,8 +530,17 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -518,8 +565,17 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -543,6 +599,15 @@
       </c>
       <c r="I4" t="s">
         <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DAT/input/portfolio.xlsx
+++ b/DAT/input/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8F251CC-5752-480D-B820-992F39FA7406}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88020841-3A13-44FD-A28D-BCEDE9DAE4E6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>1500</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>

--- a/DAT/input/portfolio.xlsx
+++ b/DAT/input/portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88020841-3A13-44FD-A28D-BCEDE9DAE4E6}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB264DF8-1D76-46C3-8438-7B15EF02C8D1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,11 +464,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/DAT/input/portfolio.xlsx
+++ b/DAT/input/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB264DF8-1D76-46C3-8438-7B15EF02C8D1}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F251548-52E7-4C3A-8094-527AC3B11FA3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20510" yWindow="1450" windowWidth="20620" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>instID</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>JP Morgan Chase</t>
+  </si>
+  <si>
+    <t>Currency</t>
   </si>
 </sst>
 </file>
@@ -462,11 +465,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -476,7 +477,7 @@
     <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +514,11 @@
       <c r="L1" t="s">
         <v>23</v>
       </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -545,8 +549,11 @@
       <c r="L2" t="s">
         <v>24</v>
       </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -580,8 +587,11 @@
       <c r="L3" t="s">
         <v>25</v>
       </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -614,6 +624,9 @@
       </c>
       <c r="L4" t="s">
         <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
